--- a/lab1/redko-shpak_fb-21_seryakov_fb-21_cp1/output/з_пробілами/частоти_букв_з_пробілами.xlsx
+++ b/lab1/redko-shpak_fb-21_seryakov_fb-21_cp1/output/з_пробілами/частоти_букв_з_пробілами.xlsx
@@ -448,101 +448,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>м</t>
+          <t> </t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02520173038122022</v>
+        <v>0.1602441966097221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>и</t>
+          <t>о</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05747297507908448</v>
+        <v>0.09291602371762379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>х</t>
+          <t>а</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00690944984155021</v>
+        <v>0.07254009685304817</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>а</t>
+          <t>е</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07254009685304817</v>
+        <v>0.06827171085054612</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>л</t>
+          <t>и</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04412303622652212</v>
+        <v>0.05747297507908448</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ф</t>
+          <t>н</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001814064051063376</v>
+        <v>0.05384905919998652</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>н</t>
+          <t>т</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05384905919998652</v>
+        <v>0.05063653710336655</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>с</t>
+          <t>л</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04256872592890049</v>
+        <v>0.04412303622652212</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ь</t>
+          <t>с</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01519068031614138</v>
+        <v>0.04256872592890049</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>е</t>
+          <t>р</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06827171085054612</v>
+        <v>0.03985886244704884</v>
       </c>
     </row>
     <row r="12">
@@ -558,121 +558,121 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ч</t>
+          <t>к</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01335415107559115</v>
+        <v>0.0307155303258997</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>б</t>
+          <t>у</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.013004536564202</v>
+        <v>0.02523823631413636</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>у</t>
+          <t>м</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02523823631413636</v>
+        <v>0.02520173038122022</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>г</t>
+          <t>п</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01608367159824379</v>
+        <v>0.02387488012715297</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>к</t>
+          <t>д</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0307155303258997</v>
+        <v>0.02360529785331074</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>о</t>
+          <t>г</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.09291602371762379</v>
+        <v>0.01608367159824379</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>т</t>
+          <t>я</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.05063653710336655</v>
+        <v>0.01601346788109737</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>р</t>
+          <t>ь</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.03985886244704884</v>
+        <v>0.01519068031614138</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t> </t>
+          <t>з</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1602441966097221</v>
+        <v>0.01492811841401379</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>п</t>
+          <t>ы</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02387488012715297</v>
+        <v>0.01452514907759336</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>я</t>
+          <t>ч</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01601346788109737</v>
+        <v>0.01335415107559115</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>д</t>
+          <t>б</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02360529785331074</v>
+        <v>0.013004536564202</v>
       </c>
     </row>
     <row r="25">
@@ -698,71 +698,71 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>з</t>
+          <t>ш</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01492811841401379</v>
+        <v>0.007332076218771632</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ц</t>
+          <t>х</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.002785683496369766</v>
+        <v>0.00690944984155021</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ы</t>
+          <t>ю</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01452514907759336</v>
+        <v>0.004434066774967601</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ш</t>
+          <t>щ</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.007332076218771632</v>
+        <v>0.002971021309636303</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ю</t>
+          <t>ц</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.004434066774967601</v>
+        <v>0.002785683496369766</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>щ</t>
+          <t>э</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.002971021309636303</v>
+        <v>0.002579284567959304</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>э</t>
+          <t>ф</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.002579284567959304</v>
+        <v>0.001814064051063376</v>
       </c>
     </row>
   </sheetData>
